--- a/student_electives.xlsx
+++ b/student_electives.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\NMIMS\NMIMS Studies\Semester 9\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\NMIMS\NMIMS Studies\Semester 9\elective_dashboard_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998ECAB1-B92B-4823-9812-60E1BDE6A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA3ECA-FDA8-4A61-A7F2-154FF05C9627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{012D4826-2DB0-41D8-B5A8-23CC2D7A9FDA}"/>
+    <workbookView xWindow="19090" yWindow="-3790" windowWidth="25820" windowHeight="14160" xr2:uid="{012D4826-2DB0-41D8-B5A8-23CC2D7A9FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="723">
   <si>
     <t>SAP ID</t>
   </si>
@@ -2203,6 +2203,9 @@
   </si>
   <si>
     <t>Roll No</t>
+  </si>
+  <si>
+    <t>Unkown</t>
   </si>
 </sst>
 </file>
@@ -2606,9 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A29979-BFF6-4182-B1A2-3D658E090490}">
   <dimension ref="A1:N335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2689,7 +2690,7 @@
         <v>717</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -2777,7 +2778,7 @@
         <v>718</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
@@ -2821,7 +2822,7 @@
         <v>717</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>17</v>
@@ -2997,7 +2998,7 @@
         <v>717</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -3129,7 +3130,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
@@ -3173,7 +3174,7 @@
         <v>718</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
@@ -3217,7 +3218,7 @@
         <v>717</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -3393,7 +3394,7 @@
         <v>717</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>17</v>
@@ -3481,7 +3482,7 @@
         <v>717</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -3569,7 +3570,7 @@
         <v>718</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -3657,7 +3658,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
@@ -3701,7 +3702,7 @@
         <v>718</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>17</v>
@@ -3745,7 +3746,7 @@
         <v>717</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>17</v>
@@ -3789,7 +3790,7 @@
         <v>717</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>17</v>
@@ -3833,7 +3834,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>17</v>
@@ -3877,7 +3878,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -4009,7 +4010,7 @@
         <v>717</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>17</v>
@@ -4053,7 +4054,7 @@
         <v>718</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>17</v>
@@ -4097,7 +4098,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>17</v>
@@ -4141,7 +4142,7 @@
         <v>718</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>17</v>
@@ -4185,7 +4186,7 @@
         <v>718</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>17</v>
@@ -4229,7 +4230,7 @@
         <v>718</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>17</v>
@@ -4317,7 +4318,7 @@
         <v>717</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>17</v>
@@ -4405,7 +4406,7 @@
         <v>718</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>17</v>
@@ -4449,7 +4450,7 @@
         <v>717</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>17</v>
@@ -4493,7 +4494,7 @@
         <v>718</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>17</v>
@@ -4537,7 +4538,7 @@
         <v>717</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>17</v>
@@ -4581,7 +4582,7 @@
         <v>717</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>17</v>
@@ -4625,7 +4626,7 @@
         <v>717</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>17</v>
@@ -4669,7 +4670,7 @@
         <v>718</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>17</v>
@@ -4713,7 +4714,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>17</v>
@@ -4757,7 +4758,7 @@
         <v>718</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>17</v>
@@ -4801,7 +4802,7 @@
         <v>718</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>17</v>
@@ -4977,7 +4978,7 @@
         <v>718</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>17</v>
@@ -5021,7 +5022,7 @@
         <v>718</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>17</v>
@@ -5109,7 +5110,7 @@
         <v>718</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>17</v>
@@ -5197,7 +5198,7 @@
         <v>717</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>17</v>
@@ -5241,7 +5242,7 @@
         <v>717</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>17</v>
@@ -5285,7 +5286,7 @@
         <v>719</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>17</v>
@@ -5329,7 +5330,7 @@
         <v>718</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
@@ -5373,7 +5374,7 @@
         <v>717</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>17</v>
@@ -5417,7 +5418,7 @@
         <v>718</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>17</v>
@@ -5461,7 +5462,7 @@
         <v>718</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>17</v>
@@ -5505,7 +5506,7 @@
         <v>718</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>17</v>
@@ -5549,7 +5550,7 @@
         <v>718</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>17</v>
@@ -5593,7 +5594,7 @@
         <v>718</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>17</v>
@@ -5637,7 +5638,7 @@
         <v>718</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>17</v>
@@ -5681,7 +5682,7 @@
         <v>718</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>17</v>
@@ -5725,7 +5726,7 @@
         <v>717</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>17</v>
@@ -5769,7 +5770,7 @@
         <v>717</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>17</v>
@@ -5813,7 +5814,7 @@
         <v>718</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>17</v>
@@ -5901,7 +5902,7 @@
         <v>718</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>17</v>
@@ -5945,7 +5946,7 @@
         <v>50</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>155</v>
+        <v>622</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>17</v>
@@ -6033,7 +6034,7 @@
         <v>718</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>17</v>
@@ -6077,7 +6078,7 @@
         <v>718</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>17</v>
@@ -6121,7 +6122,7 @@
         <v>718</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>17</v>
@@ -6165,7 +6166,7 @@
         <v>718</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>17</v>
@@ -6209,7 +6210,7 @@
         <v>718</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>17</v>
@@ -6297,7 +6298,7 @@
         <v>718</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>17</v>
@@ -6385,7 +6386,7 @@
         <v>718</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>17</v>
@@ -6429,7 +6430,7 @@
         <v>718</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>17</v>
@@ -6473,7 +6474,7 @@
         <v>718</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>17</v>
@@ -6517,7 +6518,7 @@
         <v>718</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>17</v>
@@ -6561,7 +6562,7 @@
         <v>50</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>155</v>
+        <v>622</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>17</v>
@@ -6693,7 +6694,7 @@
         <v>718</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>17</v>
@@ -6737,7 +6738,7 @@
         <v>717</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>17</v>
@@ -6781,7 +6782,7 @@
         <v>719</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>17</v>
@@ -6825,7 +6826,7 @@
         <v>717</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>17</v>
@@ -6913,7 +6914,7 @@
         <v>718</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>17</v>
@@ -6957,7 +6958,7 @@
         <v>717</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>17</v>
@@ -7001,7 +7002,7 @@
         <v>718</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>17</v>
@@ -7045,7 +7046,7 @@
         <v>717</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>17</v>
@@ -7089,7 +7090,7 @@
         <v>717</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>17</v>
@@ -7133,7 +7134,7 @@
         <v>50</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>224</v>
+        <v>622</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>17</v>
@@ -7177,7 +7178,7 @@
         <v>717</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>17</v>
@@ -7221,7 +7222,7 @@
         <v>717</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>17</v>
@@ -7265,7 +7266,7 @@
         <v>719</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>17</v>
@@ -7309,7 +7310,7 @@
         <v>719</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>17</v>
@@ -7353,7 +7354,7 @@
         <v>718</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>17</v>
@@ -7397,7 +7398,7 @@
         <v>717</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>17</v>
@@ -7441,7 +7442,7 @@
         <v>50</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>224</v>
+        <v>622</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>17</v>
@@ -7485,7 +7486,7 @@
         <v>717</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>720</v>
+        <v>531</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>17</v>
@@ -7529,7 +7530,7 @@
         <v>718</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>720</v>
+        <v>155</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>17</v>
@@ -7573,7 +7574,7 @@
         <v>719</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>720</v>
+        <v>531</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>17</v>
@@ -7617,7 +7618,7 @@
         <v>717</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>17</v>
@@ -7705,7 +7706,7 @@
         <v>50</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>224</v>
+        <v>622</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>17</v>
@@ -7749,7 +7750,7 @@
         <v>717</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>17</v>
@@ -7793,7 +7794,7 @@
         <v>720</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>224</v>
+        <v>720</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>720</v>
@@ -7925,7 +7926,7 @@
         <v>718</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>17</v>
@@ -8013,7 +8014,7 @@
         <v>718</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>17</v>
@@ -8101,7 +8102,7 @@
         <v>717</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>17</v>
@@ -8145,7 +8146,7 @@
         <v>719</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>17</v>
@@ -8189,7 +8190,7 @@
         <v>717</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>17</v>
@@ -8233,7 +8234,7 @@
         <v>719</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>17</v>
@@ -8277,7 +8278,7 @@
         <v>717</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>17</v>
@@ -8321,7 +8322,7 @@
         <v>719</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>17</v>
@@ -8365,7 +8366,7 @@
         <v>718</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>17</v>
@@ -8409,7 +8410,7 @@
         <v>717</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>17</v>
@@ -8453,7 +8454,7 @@
         <v>717</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>17</v>
@@ -8497,7 +8498,7 @@
         <v>718</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>17</v>
@@ -8585,7 +8586,7 @@
         <v>717</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>17</v>
@@ -8629,7 +8630,7 @@
         <v>717</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>17</v>
@@ -8673,7 +8674,7 @@
         <v>719</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>17</v>
@@ -8717,7 +8718,7 @@
         <v>719</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>17</v>
@@ -8761,7 +8762,7 @@
         <v>719</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>17</v>
@@ -8805,7 +8806,7 @@
         <v>719</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>17</v>
@@ -8849,7 +8850,7 @@
         <v>717</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>17</v>
@@ -9069,7 +9070,7 @@
         <v>717</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>17</v>
@@ -9157,7 +9158,7 @@
         <v>719</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>17</v>
@@ -9289,7 +9290,7 @@
         <v>719</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>17</v>
@@ -9333,7 +9334,7 @@
         <v>718</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>17</v>
@@ -9377,7 +9378,7 @@
         <v>717</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>17</v>
@@ -9421,7 +9422,7 @@
         <v>719</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>17</v>
@@ -9509,7 +9510,7 @@
         <v>720</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>224</v>
+        <v>722</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>720</v>
@@ -9553,7 +9554,7 @@
         <v>718</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>17</v>
@@ -9597,7 +9598,7 @@
         <v>718</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>17</v>
@@ -9641,7 +9642,7 @@
         <v>717</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>17</v>
@@ -9685,7 +9686,7 @@
         <v>717</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>17</v>
@@ -9729,7 +9730,7 @@
         <v>718</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>17</v>
@@ -9773,7 +9774,7 @@
         <v>717</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>17</v>
@@ -9817,7 +9818,7 @@
         <v>719</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>17</v>
@@ -9861,7 +9862,7 @@
         <v>717</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>17</v>
@@ -9905,7 +9906,7 @@
         <v>718</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>17</v>
@@ -9949,7 +9950,7 @@
         <v>719</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>17</v>
@@ -9993,7 +9994,7 @@
         <v>717</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>17</v>
@@ -10081,7 +10082,7 @@
         <v>50</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>155</v>
+        <v>622</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>17</v>
@@ -10125,7 +10126,7 @@
         <v>717</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>17</v>
@@ -10169,7 +10170,7 @@
         <v>717</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>17</v>
@@ -10213,7 +10214,7 @@
         <v>717</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>17</v>
@@ -10257,7 +10258,7 @@
         <v>719</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>17</v>
@@ -10301,7 +10302,7 @@
         <v>718</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>17</v>
@@ -10345,7 +10346,7 @@
         <v>717</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>17</v>
@@ -10389,7 +10390,7 @@
         <v>720</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>155</v>
+        <v>722</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>720</v>
@@ -10433,7 +10434,7 @@
         <v>717</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>17</v>
@@ -10477,7 +10478,7 @@
         <v>717</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>17</v>
@@ -10521,7 +10522,7 @@
         <v>719</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>17</v>
@@ -10609,7 +10610,7 @@
         <v>719</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>17</v>
@@ -10653,7 +10654,7 @@
         <v>720</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>16</v>
+        <v>722</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>720</v>
@@ -10697,7 +10698,7 @@
         <v>718</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>17</v>
@@ -10785,7 +10786,7 @@
         <v>718</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>17</v>
@@ -10917,7 +10918,7 @@
         <v>717</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>17</v>
@@ -10961,7 +10962,7 @@
         <v>50</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>17</v>
@@ -11005,7 +11006,7 @@
         <v>50</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>17</v>
@@ -11049,7 +11050,7 @@
         <v>50</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>17</v>
@@ -11093,7 +11094,7 @@
         <v>718</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>17</v>
@@ -11225,7 +11226,7 @@
         <v>719</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>17</v>
@@ -11313,7 +11314,7 @@
         <v>50</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>17</v>
@@ -11357,7 +11358,7 @@
         <v>718</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>17</v>
@@ -11401,7 +11402,7 @@
         <v>718</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>17</v>
@@ -11489,7 +11490,7 @@
         <v>718</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>17</v>
@@ -11533,7 +11534,7 @@
         <v>718</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>17</v>
@@ -11577,7 +11578,7 @@
         <v>718</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>17</v>
@@ -11621,7 +11622,7 @@
         <v>718</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>17</v>
@@ -11665,7 +11666,7 @@
         <v>718</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>17</v>
@@ -11709,7 +11710,7 @@
         <v>718</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>17</v>
@@ -11753,7 +11754,7 @@
         <v>718</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>17</v>
@@ -11841,7 +11842,7 @@
         <v>718</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>17</v>
@@ -11929,7 +11930,7 @@
         <v>718</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>17</v>
@@ -11973,7 +11974,7 @@
         <v>718</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>17</v>
@@ -12017,7 +12018,7 @@
         <v>718</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>17</v>
@@ -12061,7 +12062,7 @@
         <v>718</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H215" s="3" t="s">
         <v>17</v>
@@ -12149,7 +12150,7 @@
         <v>718</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>17</v>
@@ -12193,7 +12194,7 @@
         <v>718</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>17</v>
@@ -12237,7 +12238,7 @@
         <v>718</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>17</v>
@@ -12281,7 +12282,7 @@
         <v>718</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>17</v>
@@ -12325,7 +12326,7 @@
         <v>718</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H221" s="3" t="s">
         <v>17</v>
@@ -12369,7 +12370,7 @@
         <v>718</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>17</v>
@@ -12413,7 +12414,7 @@
         <v>718</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>17</v>
@@ -12501,7 +12502,7 @@
         <v>718</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>17</v>
@@ -12545,7 +12546,7 @@
         <v>718</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>17</v>
@@ -12589,7 +12590,7 @@
         <v>50</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>17</v>
@@ -12633,7 +12634,7 @@
         <v>50</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>17</v>
@@ -12677,7 +12678,7 @@
         <v>718</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>17</v>
@@ -12721,7 +12722,7 @@
         <v>718</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>17</v>
@@ -12765,7 +12766,7 @@
         <v>718</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>17</v>
@@ -12809,7 +12810,7 @@
         <v>718</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>17</v>
@@ -12853,7 +12854,7 @@
         <v>717</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>720</v>
+        <v>155</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>17</v>
@@ -12897,7 +12898,7 @@
         <v>718</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>17</v>
@@ -12985,7 +12986,7 @@
         <v>718</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H236" s="3" t="s">
         <v>17</v>
@@ -13117,7 +13118,7 @@
         <v>718</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H239" s="3" t="s">
         <v>17</v>
@@ -13161,7 +13162,7 @@
         <v>718</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>17</v>
@@ -13205,7 +13206,7 @@
         <v>718</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>17</v>
@@ -13249,7 +13250,7 @@
         <v>718</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>17</v>
@@ -13293,7 +13294,7 @@
         <v>718</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>17</v>
@@ -13337,7 +13338,7 @@
         <v>718</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>17</v>
@@ -13381,7 +13382,7 @@
         <v>718</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>17</v>
@@ -13425,7 +13426,7 @@
         <v>718</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>17</v>
@@ -13557,7 +13558,7 @@
         <v>718</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H249" s="3" t="s">
         <v>17</v>
@@ -13601,7 +13602,7 @@
         <v>718</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H250" s="3" t="s">
         <v>17</v>
@@ -13645,7 +13646,7 @@
         <v>50</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>17</v>
@@ -13689,7 +13690,7 @@
         <v>718</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>17</v>
@@ -13733,7 +13734,7 @@
         <v>718</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H253" s="3" t="s">
         <v>17</v>
@@ -13773,32 +13774,32 @@
       <c r="E254" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>720</v>
+      <c r="F254" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>720</v>
+        <v>17</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>720</v>
+        <v>18</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>720</v>
+        <v>56</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>720</v>
+        <v>35</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>720</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -13821,7 +13822,7 @@
         <v>718</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>17</v>
@@ -13865,7 +13866,7 @@
         <v>50</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H256" s="3" t="s">
         <v>17</v>
@@ -13909,7 +13910,7 @@
         <v>718</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>17</v>
@@ -13953,7 +13954,7 @@
         <v>718</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H258" s="3" t="s">
         <v>17</v>
@@ -13997,7 +13998,7 @@
         <v>718</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>17</v>
@@ -14041,7 +14042,7 @@
         <v>717</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H260" s="3" t="s">
         <v>17</v>
@@ -14129,7 +14130,7 @@
         <v>718</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>17</v>
@@ -14173,7 +14174,7 @@
         <v>718</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H263" s="3" t="s">
         <v>17</v>
@@ -14217,7 +14218,7 @@
         <v>718</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H264" s="3" t="s">
         <v>17</v>
@@ -14261,7 +14262,7 @@
         <v>717</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H265" s="3" t="s">
         <v>17</v>
@@ -14349,7 +14350,7 @@
         <v>718</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H267" s="3" t="s">
         <v>17</v>
@@ -14437,7 +14438,7 @@
         <v>718</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>17</v>
@@ -14481,7 +14482,7 @@
         <v>717</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>17</v>
@@ -14525,7 +14526,7 @@
         <v>718</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H271" s="3" t="s">
         <v>17</v>
@@ -14569,7 +14570,7 @@
         <v>717</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>17</v>
@@ -14613,7 +14614,7 @@
         <v>718</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>17</v>
@@ -14657,7 +14658,7 @@
         <v>718</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H274" s="3" t="s">
         <v>17</v>
@@ -14701,7 +14702,7 @@
         <v>717</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>17</v>
@@ -14745,7 +14746,7 @@
         <v>50</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>17</v>
@@ -14789,7 +14790,7 @@
         <v>50</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H277" s="3" t="s">
         <v>17</v>
@@ -14833,7 +14834,7 @@
         <v>718</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H278" s="3" t="s">
         <v>17</v>
@@ -14877,7 +14878,7 @@
         <v>717</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H279" s="3" t="s">
         <v>17</v>
@@ -14921,7 +14922,7 @@
         <v>718</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H280" s="3" t="s">
         <v>17</v>
@@ -14965,7 +14966,7 @@
         <v>718</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>17</v>
@@ -15053,7 +15054,7 @@
         <v>717</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>17</v>
@@ -15097,7 +15098,7 @@
         <v>718</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>17</v>
@@ -15141,7 +15142,7 @@
         <v>718</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>17</v>
@@ -15229,7 +15230,7 @@
         <v>718</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H287" s="3" t="s">
         <v>17</v>
@@ -15273,7 +15274,7 @@
         <v>718</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="H288" s="3" t="s">
         <v>17</v>
@@ -15317,7 +15318,7 @@
         <v>50</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H289" s="3" t="s">
         <v>17</v>
@@ -15361,7 +15362,7 @@
         <v>50</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H290" s="3" t="s">
         <v>17</v>
@@ -15405,7 +15406,7 @@
         <v>717</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="H291" s="3" t="s">
         <v>17</v>
@@ -15449,7 +15450,7 @@
         <v>50</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="H292" s="3" t="s">
         <v>17</v>
@@ -15493,7 +15494,7 @@
         <v>718</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H293" s="3" t="s">
         <v>17</v>
@@ -15581,7 +15582,7 @@
         <v>717</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H295" s="3" t="s">
         <v>17</v>
@@ -15669,7 +15670,7 @@
         <v>717</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>17</v>
@@ -15713,7 +15714,7 @@
         <v>717</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>17</v>
@@ -15757,7 +15758,7 @@
         <v>718</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>17</v>
@@ -15845,7 +15846,7 @@
         <v>717</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H301" s="3" t="s">
         <v>17</v>
@@ -15933,7 +15934,7 @@
         <v>717</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>17</v>
@@ -15977,7 +15978,7 @@
         <v>717</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H304" s="3" t="s">
         <v>17</v>
@@ -16021,7 +16022,7 @@
         <v>718</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>622</v>
+        <v>16</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>17</v>
@@ -16065,7 +16066,7 @@
         <v>718</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>17</v>
@@ -16109,7 +16110,7 @@
         <v>718</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>17</v>
@@ -16153,7 +16154,7 @@
         <v>718</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>17</v>
@@ -16197,7 +16198,7 @@
         <v>717</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>17</v>
@@ -16241,7 +16242,7 @@
         <v>718</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H310" s="3" t="s">
         <v>17</v>
@@ -16329,7 +16330,7 @@
         <v>718</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>17</v>
@@ -16417,7 +16418,7 @@
         <v>717</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H314" s="3" t="s">
         <v>17</v>
@@ -16505,7 +16506,7 @@
         <v>718</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H316" s="3" t="s">
         <v>17</v>
@@ -16549,7 +16550,7 @@
         <v>717</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H317" s="3" t="s">
         <v>17</v>
@@ -16593,7 +16594,7 @@
         <v>717</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H318" s="3" t="s">
         <v>17</v>
@@ -16637,7 +16638,7 @@
         <v>718</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>17</v>
@@ -16681,7 +16682,7 @@
         <v>718</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>17</v>
@@ -16725,7 +16726,7 @@
         <v>718</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>17</v>
@@ -16813,7 +16814,7 @@
         <v>717</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H323" s="3" t="s">
         <v>17</v>
@@ -16857,7 +16858,7 @@
         <v>718</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>622</v>
+        <v>16</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>17</v>
@@ -16901,7 +16902,7 @@
         <v>718</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H325" s="3" t="s">
         <v>17</v>
@@ -16945,7 +16946,7 @@
         <v>718</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>17</v>
@@ -16989,7 +16990,7 @@
         <v>718</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H327" s="3" t="s">
         <v>17</v>
@@ -17033,7 +17034,7 @@
         <v>718</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>17</v>
@@ -17077,7 +17078,7 @@
         <v>717</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>17</v>
@@ -17121,7 +17122,7 @@
         <v>718</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>17</v>
@@ -17165,7 +17166,7 @@
         <v>718</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>17</v>
@@ -17209,7 +17210,7 @@
         <v>717</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>622</v>
+        <v>406</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>17</v>
@@ -17253,7 +17254,7 @@
         <v>718</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>17</v>
@@ -17297,7 +17298,7 @@
         <v>718</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>17</v>
@@ -17341,7 +17342,7 @@
         <v>718</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>622</v>
+        <v>155</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>17</v>

--- a/student_electives.xlsx
+++ b/student_electives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\NMIMS\NMIMS Studies\Semester 9\elective_dashboard_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA3ECA-FDA8-4A61-A7F2-154FF05C9627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DD1F6-9970-4017-9968-E9FD8918BA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3790" windowWidth="25820" windowHeight="14160" xr2:uid="{012D4826-2DB0-41D8-B5A8-23CC2D7A9FDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{012D4826-2DB0-41D8-B5A8-23CC2D7A9FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Unkown</t>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A29979-BFF6-4182-B1A2-3D658E090490}">
   <dimension ref="A1:N335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
